--- a/data/trans_dic/P35-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P35-Provincia-trans_dic.xlsx
@@ -724,7 +724,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>15,65; 25,41</t>
+          <t>15,94; 25,45</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -734,17 +734,17 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>29,12; 40,39</t>
+          <t>28,56; 41,08</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>9,72; 17,19</t>
+          <t>10,07; 17,65</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>18,18; 28,56</t>
+          <t>17,86; 29,14</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -754,17 +754,17 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>38,53; 50,17</t>
+          <t>38,51; 50,31</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>9,14; 14,47</t>
+          <t>9,12; 14,51</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>18,23; 25,26</t>
+          <t>18,34; 25,8</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
@@ -774,12 +774,12 @@
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>35,64; 43,83</t>
+          <t>35,38; 43,58</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>10,35; 15,26</t>
+          <t>10,35; 15,11</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>19,16; 27,31</t>
+          <t>19,62; 27,39</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>33,32; 42,26</t>
+          <t>33,06; 42,35</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>24,08; 32,1</t>
+          <t>24,17; 32,31</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>33,71; 44,69</t>
+          <t>34,28; 44,83</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>28,66; 37,41</t>
+          <t>28,53; 37,21</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>39,59; 48,69</t>
+          <t>39,99; 49,22</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>31,54; 40,88</t>
+          <t>32,07; 40,49</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>36,96; 44,67</t>
+          <t>36,86; 44,89</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>24,94; 31,14</t>
+          <t>25,25; 31,16</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>37,88; 44,35</t>
+          <t>37,96; 44,32</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>29,37; 35,16</t>
+          <t>29,42; 35,25</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>36,65; 43,22</t>
+          <t>36,83; 43,03</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>9,84; 17,68</t>
+          <t>9,9; 17,46</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>19,37; 28,69</t>
+          <t>19,24; 27,98</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>22,17; 31,46</t>
+          <t>21,67; 31,49</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>23,32; 32,77</t>
+          <t>23,87; 32,85</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>14,88; 23,28</t>
+          <t>14,72; 23,29</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>24,35; 34,64</t>
+          <t>24,37; 34,52</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>27,82; 38,39</t>
+          <t>28,07; 38,15</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>25,41; 33,47</t>
+          <t>25,55; 33,2</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>13,41; 19,26</t>
+          <t>13,62; 19,04</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>23,04; 29,9</t>
+          <t>23,21; 29,8</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>26,3; 33,67</t>
+          <t>26,8; 33,79</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>25,64; 31,65</t>
+          <t>25,59; 31,95</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>14,17; 22,06</t>
+          <t>13,66; 21,59</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>16,28; 23,0</t>
+          <t>16,58; 23,23</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>25,89; 35,29</t>
+          <t>25,84; 35,98</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>17,05; 27,76</t>
+          <t>17,47; 27,61</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>20,35; 29,28</t>
+          <t>19,78; 28,25</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>31,98; 39,94</t>
+          <t>31,78; 39,88</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>32,26; 42,76</t>
+          <t>32,1; 43,01</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>19,02; 28,11</t>
+          <t>19,57; 28,56</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>18,21; 24,15</t>
+          <t>17,91; 23,99</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>25,31; 30,29</t>
+          <t>25,41; 30,65</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>30,64; 38,09</t>
+          <t>30,4; 37,79</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>19,79; 26,43</t>
+          <t>19,78; 26,5</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>5,53; 13,82</t>
+          <t>5,82; 14,33</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>16,76; 28,46</t>
+          <t>16,24; 28,1</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>34,15; 46,91</t>
+          <t>33,9; 47,36</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>24,94; 36,11</t>
+          <t>25,04; 36,49</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>9,06; 19,17</t>
+          <t>8,62; 19,4</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>29,46; 42,9</t>
+          <t>29,86; 42,48</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>43,24; 56,78</t>
+          <t>43,55; 56,82</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>25,88; 35,15</t>
+          <t>26,17; 35,19</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>8,57; 15,07</t>
+          <t>8,32; 15,11</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>24,88; 33,61</t>
+          <t>24,73; 33,56</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>40,77; 50,18</t>
+          <t>40,5; 50,12</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>26,15; 33,87</t>
+          <t>26,44; 33,78</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>16,46; 26,59</t>
+          <t>15,76; 26,71</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>23,99; 35,04</t>
+          <t>23,74; 35,37</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>17,22; 28,1</t>
+          <t>17,49; 28,69</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>26,14; 35,32</t>
+          <t>26,2; 35,22</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>18,83; 29,22</t>
+          <t>18,6; 29,67</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>32,98; 44,88</t>
+          <t>32,7; 44,05</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>25,39; 37,1</t>
+          <t>25,91; 37,41</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>26,07; 34,66</t>
+          <t>25,79; 34,48</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>18,17; 25,75</t>
+          <t>18,92; 26,46</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>29,82; 37,93</t>
+          <t>29,82; 38,76</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>23,11; 30,86</t>
+          <t>23,58; 30,98</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>27,31; 33,63</t>
+          <t>27,66; 34,09</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1564,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>10,42; 15,57</t>
+          <t>10,53; 15,98</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>22,83; 30,43</t>
+          <t>22,67; 30,0</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>26,36; 34,44</t>
+          <t>26,65; 34,54</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>21,22; 27,93</t>
+          <t>21,03; 28,1</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>11,36; 16,83</t>
+          <t>11,34; 16,91</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>29,58; 37,34</t>
+          <t>29,71; 36,99</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>31,51; 39,07</t>
+          <t>31,53; 39,15</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>17,35; 34,6</t>
+          <t>16,97; 34,41</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>11,84; 15,61</t>
+          <t>11,78; 15,53</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>27,56; 32,41</t>
+          <t>27,27; 32,51</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>30,38; 35,52</t>
+          <t>30,63; 35,95</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>20,51; 29,89</t>
+          <t>20,11; 30,31</t>
         </is>
       </c>
     </row>
@@ -1704,62 +1704,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>16,46; 22,32</t>
+          <t>16,33; 21,98</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>21,07; 27,89</t>
+          <t>21,1; 28,0</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>18,15; 24,02</t>
+          <t>17,95; 23,91</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>45,5; 61,88</t>
+          <t>45,44; 62,04</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>18,35; 24,37</t>
+          <t>18,41; 24,66</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>24,88; 31,42</t>
+          <t>24,65; 31,31</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>22,93; 29,44</t>
+          <t>23,33; 29,88</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>61,88; 68,75</t>
+          <t>62,38; 68,71</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>18,14; 22,25</t>
+          <t>18,04; 22,51</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>23,87; 28,32</t>
+          <t>23,76; 28,3</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>21,49; 25,95</t>
+          <t>21,42; 25,91</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>54,6; 64,0</t>
+          <t>54,73; 64,21</t>
         </is>
       </c>
     </row>
@@ -1844,62 +1844,62 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>16,28; 18,79</t>
+          <t>16,26; 18,98</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>24,29; 27,43</t>
+          <t>24,36; 27,58</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>26,35; 29,55</t>
+          <t>26,44; 29,65</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>32,8; 37,09</t>
+          <t>32,91; 37,01</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>20,18; 23,21</t>
+          <t>20,27; 23,04</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>32,8; 36,25</t>
+          <t>32,79; 36,14</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>33,29; 36,43</t>
+          <t>33,06; 36,49</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>33,59; 39,22</t>
+          <t>32,75; 39,06</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>18,61; 20,5</t>
+          <t>18,62; 20,52</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>29,17; 31,43</t>
+          <t>29,06; 31,55</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>30,37; 32,66</t>
+          <t>30,28; 32,66</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>34,08; 37,66</t>
+          <t>34,3; 37,67</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P35-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P35-Provincia-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -724,7 +724,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>15,94; 25,45</t>
+          <t>15,8; 25,52</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -734,7 +734,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>28,56; 41,08</t>
+          <t>29,17; 40,81</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -744,7 +744,7 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>17,86; 29,14</t>
+          <t>18,43; 29,99</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -754,7 +754,7 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>38,51; 50,31</t>
+          <t>38,31; 50,23</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -764,7 +764,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>18,34; 25,8</t>
+          <t>18,17; 25,42</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
@@ -774,7 +774,7 @@
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>35,38; 43,58</t>
+          <t>35,08; 43,85</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -864,17 +864,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>19,62; 27,39</t>
+          <t>18,73; 27,21</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>33,06; 42,35</t>
+          <t>33,11; 42,07</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>24,17; 32,31</t>
+          <t>23,98; 31,97</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -884,17 +884,17 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>28,53; 37,21</t>
+          <t>28,48; 37,11</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>39,99; 49,22</t>
+          <t>40,01; 49,16</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>32,07; 40,49</t>
+          <t>32,11; 40,88</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -904,17 +904,17 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>25,25; 31,16</t>
+          <t>25,14; 31,14</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>37,96; 44,32</t>
+          <t>38,02; 44,62</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>29,42; 35,25</t>
+          <t>29,26; 35,52</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -1004,17 +1004,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>9,9; 17,46</t>
+          <t>9,95; 17,42</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>19,24; 27,98</t>
+          <t>18,91; 28,89</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>21,67; 31,49</t>
+          <t>21,55; 31,09</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -1024,17 +1024,17 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>14,72; 23,29</t>
+          <t>14,7; 23,43</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>24,37; 34,52</t>
+          <t>24,09; 34,53</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>28,07; 38,15</t>
+          <t>28,17; 39,09</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -1044,17 +1044,17 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>13,62; 19,04</t>
+          <t>13,56; 19,28</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>23,21; 29,8</t>
+          <t>23,1; 30,28</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>26,8; 33,79</t>
+          <t>26,53; 33,7</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1144,17 +1144,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>13,66; 21,59</t>
+          <t>14,05; 21,9</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>16,58; 23,23</t>
+          <t>16,6; 23,21</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>25,84; 35,98</t>
+          <t>25,86; 35,55</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1164,17 +1164,17 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>19,78; 28,25</t>
+          <t>19,8; 28,92</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>31,78; 39,88</t>
+          <t>31,66; 39,51</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>32,1; 43,01</t>
+          <t>32,17; 43,17</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1184,17 +1184,17 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>17,91; 23,99</t>
+          <t>18,06; 24,04</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>25,41; 30,65</t>
+          <t>25,24; 30,35</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>30,4; 37,79</t>
+          <t>31,01; 37,89</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -1284,17 +1284,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>5,82; 14,33</t>
+          <t>5,59; 13,9</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>16,24; 28,1</t>
+          <t>16,91; 28,61</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>33,9; 47,36</t>
+          <t>33,99; 47,56</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1304,17 +1304,17 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>8,62; 19,4</t>
+          <t>9,05; 18,96</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>29,86; 42,48</t>
+          <t>29,59; 43,16</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>43,55; 56,82</t>
+          <t>43,94; 57,27</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1324,17 +1324,17 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>8,32; 15,11</t>
+          <t>8,54; 15,07</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>24,73; 33,56</t>
+          <t>24,99; 33,94</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>40,5; 50,12</t>
+          <t>40,87; 49,96</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -1424,17 +1424,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>15,76; 26,71</t>
+          <t>16,04; 27,26</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>23,74; 35,37</t>
+          <t>24,03; 34,82</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>17,49; 28,69</t>
+          <t>17,74; 28,89</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1444,17 +1444,17 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>18,6; 29,67</t>
+          <t>18,37; 28,76</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>32,7; 44,05</t>
+          <t>32,36; 43,84</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>25,91; 37,41</t>
+          <t>26,21; 37,48</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
@@ -1464,17 +1464,17 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>18,92; 26,46</t>
+          <t>18,79; 26,09</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>29,82; 38,76</t>
+          <t>29,89; 38,23</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>23,58; 30,98</t>
+          <t>23,57; 31,43</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -1564,17 +1564,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>10,53; 15,98</t>
+          <t>10,32; 15,95</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>22,67; 30,0</t>
+          <t>23,08; 30,46</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>26,65; 34,54</t>
+          <t>26,82; 34,58</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1584,17 +1584,17 @@
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>11,34; 16,91</t>
+          <t>11,64; 17,29</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>29,71; 36,99</t>
+          <t>29,76; 37,19</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>31,53; 39,15</t>
+          <t>31,58; 39,03</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -1604,17 +1604,17 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>11,78; 15,53</t>
+          <t>11,58; 15,68</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>27,27; 32,51</t>
+          <t>27,45; 32,66</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>30,63; 35,95</t>
+          <t>30,24; 35,5</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
@@ -1704,17 +1704,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>16,33; 21,98</t>
+          <t>16,21; 22,07</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>21,1; 28,0</t>
+          <t>21,05; 27,78</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>17,95; 23,91</t>
+          <t>17,62; 23,99</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
@@ -1724,17 +1724,17 @@
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>18,41; 24,66</t>
+          <t>18,66; 24,81</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>24,65; 31,31</t>
+          <t>25,15; 31,85</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>23,33; 29,88</t>
+          <t>23,37; 29,87</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -1744,17 +1744,17 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>18,04; 22,51</t>
+          <t>18,22; 22,71</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>23,76; 28,3</t>
+          <t>24,08; 28,72</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>21,42; 25,91</t>
+          <t>21,52; 26,04</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
@@ -1844,17 +1844,17 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>16,26; 18,98</t>
+          <t>16,15; 18,8</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>24,36; 27,58</t>
+          <t>24,45; 27,51</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>26,44; 29,65</t>
+          <t>26,47; 29,48</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
@@ -1864,17 +1864,17 @@
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>20,27; 23,04</t>
+          <t>20,08; 23,01</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>32,79; 36,14</t>
+          <t>32,73; 36,23</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>33,06; 36,49</t>
+          <t>33,08; 36,5</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
@@ -1884,17 +1884,17 @@
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>18,62; 20,52</t>
+          <t>18,52; 20,57</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>29,06; 31,55</t>
+          <t>29,09; 31,49</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>30,28; 32,66</t>
+          <t>30,3; 32,64</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">

--- a/data/trans_dic/P35-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P35-Provincia-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,7 +724,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>15,8; 25,52</t>
+          <t>15,65; 25,41</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -734,17 +734,17 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>29,17; 40,81</t>
+          <t>29,12; 40,39</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>10,07; 17,65</t>
+          <t>9,72; 17,19</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>18,43; 29,99</t>
+          <t>18,18; 28,56</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -754,17 +754,17 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>38,31; 50,23</t>
+          <t>38,53; 50,17</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>9,12; 14,51</t>
+          <t>9,14; 14,47</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>18,17; 25,42</t>
+          <t>18,23; 25,26</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
@@ -774,12 +774,12 @@
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>35,08; 43,85</t>
+          <t>35,64; 43,83</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>10,35; 15,11</t>
+          <t>10,35; 15,26</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>18,73; 27,21</t>
+          <t>19,16; 27,31</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>33,11; 42,07</t>
+          <t>33,32; 42,26</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>23,98; 31,97</t>
+          <t>24,08; 32,1</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>34,28; 44,83</t>
+          <t>33,71; 44,69</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>28,48; 37,11</t>
+          <t>28,66; 37,41</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>40,01; 49,16</t>
+          <t>39,59; 48,69</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>32,11; 40,88</t>
+          <t>31,54; 40,88</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>36,86; 44,89</t>
+          <t>36,96; 44,67</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>25,14; 31,14</t>
+          <t>24,94; 31,14</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>38,02; 44,62</t>
+          <t>37,88; 44,35</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>29,26; 35,52</t>
+          <t>29,37; 35,16</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>36,83; 43,03</t>
+          <t>36,65; 43,22</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>9,95; 17,42</t>
+          <t>9,84; 17,68</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>18,91; 28,89</t>
+          <t>19,37; 28,69</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>21,55; 31,09</t>
+          <t>22,17; 31,46</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>23,87; 32,85</t>
+          <t>23,32; 32,77</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>14,7; 23,43</t>
+          <t>14,88; 23,28</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>24,09; 34,53</t>
+          <t>24,35; 34,64</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>28,17; 39,09</t>
+          <t>27,82; 38,39</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>25,55; 33,2</t>
+          <t>25,41; 33,47</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>13,56; 19,28</t>
+          <t>13,41; 19,26</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>23,1; 30,28</t>
+          <t>23,04; 29,9</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>26,53; 33,7</t>
+          <t>26,3; 33,67</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>25,59; 31,95</t>
+          <t>25,64; 31,65</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>14,05; 21,9</t>
+          <t>14,17; 22,06</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>16,6; 23,21</t>
+          <t>16,28; 23,0</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>25,86; 35,55</t>
+          <t>25,89; 35,29</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>17,47; 27,61</t>
+          <t>17,05; 27,76</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>19,8; 28,92</t>
+          <t>20,35; 29,28</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>31,66; 39,51</t>
+          <t>31,98; 39,94</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>32,17; 43,17</t>
+          <t>32,26; 42,76</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>19,57; 28,56</t>
+          <t>19,02; 28,11</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>18,06; 24,04</t>
+          <t>18,21; 24,15</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>25,24; 30,35</t>
+          <t>25,31; 30,29</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>31,01; 37,89</t>
+          <t>30,64; 38,09</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>19,78; 26,5</t>
+          <t>19,79; 26,43</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>5,59; 13,9</t>
+          <t>5,53; 13,82</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>16,91; 28,61</t>
+          <t>16,76; 28,46</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>33,99; 47,56</t>
+          <t>34,15; 46,91</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>25,04; 36,49</t>
+          <t>24,94; 36,11</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>9,05; 18,96</t>
+          <t>9,06; 19,17</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>29,59; 43,16</t>
+          <t>29,46; 42,9</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>43,94; 57,27</t>
+          <t>43,24; 56,78</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>26,17; 35,19</t>
+          <t>25,88; 35,15</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>8,54; 15,07</t>
+          <t>8,57; 15,07</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>24,99; 33,94</t>
+          <t>24,88; 33,61</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>40,87; 49,96</t>
+          <t>40,77; 50,18</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>26,44; 33,78</t>
+          <t>26,15; 33,87</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>16,04; 27,26</t>
+          <t>16,46; 26,59</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>24,03; 34,82</t>
+          <t>23,99; 35,04</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>17,74; 28,89</t>
+          <t>17,22; 28,1</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>26,2; 35,22</t>
+          <t>26,14; 35,32</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>18,37; 28,76</t>
+          <t>18,83; 29,22</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>32,36; 43,84</t>
+          <t>32,98; 44,88</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>26,21; 37,48</t>
+          <t>25,39; 37,1</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>25,79; 34,48</t>
+          <t>26,07; 34,66</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>18,79; 26,09</t>
+          <t>18,17; 25,75</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>29,89; 38,23</t>
+          <t>29,82; 37,93</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>23,57; 31,43</t>
+          <t>23,11; 30,86</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>27,66; 34,09</t>
+          <t>27,31; 33,63</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1564,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>10,32; 15,95</t>
+          <t>10,42; 15,57</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>23,08; 30,46</t>
+          <t>22,83; 30,43</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>26,82; 34,58</t>
+          <t>26,36; 34,44</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>21,03; 28,1</t>
+          <t>21,22; 27,93</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>11,64; 17,29</t>
+          <t>11,36; 16,83</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>29,76; 37,19</t>
+          <t>29,58; 37,34</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>31,58; 39,03</t>
+          <t>31,51; 39,07</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>16,97; 34,41</t>
+          <t>17,35; 34,6</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>11,58; 15,68</t>
+          <t>11,84; 15,61</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>27,45; 32,66</t>
+          <t>27,56; 32,41</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>30,24; 35,5</t>
+          <t>30,38; 35,52</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>20,11; 30,31</t>
+          <t>20,51; 29,89</t>
         </is>
       </c>
     </row>
@@ -1704,62 +1704,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>16,21; 22,07</t>
+          <t>16,46; 22,32</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>21,05; 27,78</t>
+          <t>21,07; 27,89</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>17,62; 23,99</t>
+          <t>18,15; 24,02</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>45,44; 62,04</t>
+          <t>45,5; 61,88</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>18,66; 24,81</t>
+          <t>18,35; 24,37</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>25,15; 31,85</t>
+          <t>24,88; 31,42</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>23,37; 29,87</t>
+          <t>22,93; 29,44</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>62,38; 68,71</t>
+          <t>61,88; 68,75</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>18,22; 22,71</t>
+          <t>18,14; 22,25</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>24,08; 28,72</t>
+          <t>23,87; 28,32</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>21,52; 26,04</t>
+          <t>21,49; 25,95</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>54,73; 64,21</t>
+          <t>54,6; 64,0</t>
         </is>
       </c>
     </row>
@@ -1844,62 +1844,62 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>16,15; 18,8</t>
+          <t>16,28; 18,79</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>24,45; 27,51</t>
+          <t>24,29; 27,43</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>26,47; 29,48</t>
+          <t>26,35; 29,55</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>32,91; 37,01</t>
+          <t>32,8; 37,09</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>20,08; 23,01</t>
+          <t>20,18; 23,21</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>32,73; 36,23</t>
+          <t>32,8; 36,25</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>33,08; 36,5</t>
+          <t>33,29; 36,43</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>32,75; 39,06</t>
+          <t>33,59; 39,22</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>18,52; 20,57</t>
+          <t>18,61; 20,5</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>29,09; 31,49</t>
+          <t>29,17; 31,43</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>30,3; 32,64</t>
+          <t>30,37; 32,66</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>34,3; 37,67</t>
+          <t>34,08; 37,66</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P35-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P35-Provincia-trans_dic.xlsx
@@ -661,7 +661,7 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>24,04%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -671,7 +671,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>13,19%</t>
+          <t>12,36%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -681,7 +681,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>40,01%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>11,77%</t>
+          <t>11,44%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -701,7 +701,7 @@
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>32,04%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>12,47%</t>
+          <t>11,91%</t>
         </is>
       </c>
     </row>
@@ -729,7 +729,7 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>19,33; 29,88</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -739,7 +739,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>9,72; 17,19</t>
+          <t>8,97; 16,45</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -749,7 +749,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>34,02; 46,71</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -759,7 +759,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>9,14; 14,47</t>
+          <t>8,78; 14,17</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -769,7 +769,7 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>28,3; 36,61</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>10,35; 15,26</t>
+          <t>9,8; 14,65</t>
         </is>
       </c>
     </row>
@@ -811,7 +811,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>39,17%</t>
+          <t>38,83%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>40,85%</t>
+          <t>40,94%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>40,04%</t>
+          <t>39,88%</t>
         </is>
       </c>
     </row>
@@ -879,7 +879,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>33,71; 44,69</t>
+          <t>33,26; 44,57</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>36,96; 44,67</t>
+          <t>36,95; 44,7</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -919,7 +919,7 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>36,65; 43,22</t>
+          <t>36,38; 43,22</t>
         </is>
       </c>
     </row>
@@ -951,7 +951,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>28,18%</t>
+          <t>27,71%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -971,7 +971,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>29,19%</t>
+          <t>29,03%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -991,7 +991,7 @@
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>28,72%</t>
+          <t>28,4%</t>
         </is>
       </c>
     </row>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>23,32; 32,77</t>
+          <t>22,83; 32,34</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>25,41; 33,47</t>
+          <t>25,23; 33,34</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1059,7 +1059,7 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>25,64; 31,65</t>
+          <t>25,4; 31,37</t>
         </is>
       </c>
     </row>
@@ -1081,7 +1081,7 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>19,7%</t>
+          <t>16,28%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
@@ -1091,7 +1091,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>21,96%</t>
+          <t>21,44%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -1101,7 +1101,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>35,83%</t>
+          <t>32,58%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -1111,7 +1111,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>23,55%</t>
+          <t>19,46%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1121,7 +1121,7 @@
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>27,81%</t>
+          <t>24,49%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>22,86%</t>
+          <t>20,24%</t>
         </is>
       </c>
     </row>
@@ -1149,7 +1149,7 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>16,28; 23,0</t>
+          <t>12,4; 20,62</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -1159,7 +1159,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>17,05; 27,76</t>
+          <t>16,68; 27,43</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1169,7 +1169,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>31,98; 39,94</t>
+          <t>27,69; 37,54</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>19,02; 28,11</t>
+          <t>10,92; 25,23</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1189,7 +1189,7 @@
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>25,31; 30,29</t>
+          <t>21,13; 27,51</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
@@ -1199,7 +1199,7 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>19,79; 26,43</t>
+          <t>15,1; 24,13</t>
         </is>
       </c>
     </row>
@@ -1231,7 +1231,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>29,87%</t>
+          <t>29,78%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1251,7 +1251,7 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>30,39%</t>
+          <t>30,24%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
@@ -1271,7 +1271,7 @@
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>30,15%</t>
+          <t>30,02%</t>
         </is>
       </c>
     </row>
@@ -1299,7 +1299,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>24,94; 36,11</t>
+          <t>24,84; 35,99</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1319,7 +1319,7 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>25,88; 35,15</t>
+          <t>25,97; 34,82</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
@@ -1339,7 +1339,7 @@
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>26,15; 33,87</t>
+          <t>26,07; 33,62</t>
         </is>
       </c>
     </row>
@@ -1371,7 +1371,7 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>30,82%</t>
+          <t>30,25%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1391,7 +1391,7 @@
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>30,08%</t>
+          <t>30,05%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
@@ -1411,7 +1411,7 @@
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>30,45%</t>
+          <t>30,15%</t>
         </is>
       </c>
     </row>
@@ -1439,7 +1439,7 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>26,14; 35,32</t>
+          <t>25,56; 34,78</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1459,7 +1459,7 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>26,07; 34,66</t>
+          <t>26,08; 34,72</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>27,31; 33,63</t>
+          <t>27,02; 33,32</t>
         </is>
       </c>
     </row>
@@ -1511,7 +1511,7 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>24,39%</t>
+          <t>23,61%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1531,7 +1531,7 @@
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>28,85%</t>
+          <t>25,36%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
@@ -1551,7 +1551,7 @@
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>26,89%</t>
+          <t>24,62%</t>
         </is>
       </c>
     </row>
@@ -1579,7 +1579,7 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>21,22; 27,93</t>
+          <t>20,37; 27,31</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1599,7 +1599,7 @@
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>17,35; 34,6</t>
+          <t>11,46; 34,38</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
@@ -1619,7 +1619,7 @@
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>20,51; 29,89</t>
+          <t>15,72; 29,14</t>
         </is>
       </c>
     </row>
@@ -1651,7 +1651,7 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>56,85%</t>
+          <t>44,7%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -1671,7 +1671,7 @@
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>65,68%</t>
+          <t>65,9%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
@@ -1691,7 +1691,7 @@
       </c>
       <c r="N18" s="2" t="inlineStr">
         <is>
-          <t>61,28%</t>
+          <t>53,92%</t>
         </is>
       </c>
     </row>
@@ -1719,7 +1719,7 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>45,5; 61,88</t>
+          <t>21,3; 61,8</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -1739,7 +1739,7 @@
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>61,88; 68,75</t>
+          <t>62,12; 68,87</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
@@ -1759,7 +1759,7 @@
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>54,6; 64,0</t>
+          <t>31,76; 63,85</t>
         </is>
       </c>
     </row>
@@ -1791,7 +1791,7 @@
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>35,01%</t>
+          <t>31,55%</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -1811,7 +1811,7 @@
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>37,38%</t>
+          <t>34,56%</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
@@ -1831,7 +1831,7 @@
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>36,26%</t>
+          <t>33,1%</t>
         </is>
       </c>
     </row>
@@ -1859,7 +1859,7 @@
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>32,8; 37,09</t>
+          <t>24,24; 34,61</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -1879,7 +1879,7 @@
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>33,59; 39,22</t>
+          <t>28,36; 37,57</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
@@ -1899,7 +1899,7 @@
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>34,08; 37,66</t>
+          <t>27,88; 35,37</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P35-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P35-Provincia-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -646,7 +647,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -724,69 +725,69 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>15,65; 25,41</t>
+          <t>15,49; 25,04</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>19,33; 29,88</t>
+          <t>19,01; 30,41</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>29,12; 40,39</t>
+          <t>28,88; 40,94</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>8,97; 16,45</t>
+          <t>9,58; 17,1</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>18,18; 28,56</t>
+          <t>17,81; 28,99</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>34,02; 46,71</t>
+          <t>34,24; 46,59</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>38,53; 50,17</t>
+          <t>38,05; 49,44</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>8,78; 14,17</t>
+          <t>8,8; 14,45</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>18,23; 25,26</t>
+          <t>17,91; 25,34</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>28,3; 36,61</t>
+          <t>27,89; 35,73</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>35,64; 43,83</t>
+          <t>35,29; 43,42</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>9,8; 14,65</t>
+          <t>9,54; 14,5</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -864,69 +865,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>19,16; 27,31</t>
+          <t>19,12; 27,32</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>33,32; 42,26</t>
+          <t>33,0; 42,24</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>24,08; 32,1</t>
+          <t>24,09; 31,88</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>33,26; 44,57</t>
+          <t>33,33; 44,95</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>28,66; 37,41</t>
+          <t>28,61; 36,95</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>39,59; 48,69</t>
+          <t>39,87; 49,21</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>31,54; 40,88</t>
+          <t>31,98; 40,68</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>36,95; 44,7</t>
+          <t>37,24; 44,94</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>24,94; 31,14</t>
+          <t>25,31; 31,26</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>37,88; 44,35</t>
+          <t>37,86; 44,44</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>29,37; 35,16</t>
+          <t>29,19; 35,08</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>36,38; 43,22</t>
+          <t>36,46; 43,42</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>9,84; 17,68</t>
+          <t>10,25; 18,06</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>19,37; 28,69</t>
+          <t>19,1; 28,63</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>22,17; 31,46</t>
+          <t>21,81; 31,46</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>22,83; 32,34</t>
+          <t>23,39; 32,2</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>14,88; 23,28</t>
+          <t>14,66; 22,86</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>24,35; 34,64</t>
+          <t>24,21; 34,8</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>27,82; 38,39</t>
+          <t>28,19; 38,62</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>25,23; 33,34</t>
+          <t>25,04; 33,29</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>13,41; 19,26</t>
+          <t>13,58; 19,17</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>23,04; 29,9</t>
+          <t>22,75; 29,75</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>26,3; 33,67</t>
+          <t>26,57; 33,81</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>25,4; 31,37</t>
+          <t>25,26; 31,63</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>14,17; 22,06</t>
+          <t>14,03; 22,14</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>12,4; 20,62</t>
+          <t>12,22; 21,0</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>25,89; 35,29</t>
+          <t>25,68; 35,56</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>16,68; 27,43</t>
+          <t>17,06; 26,75</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>20,35; 29,28</t>
+          <t>19,55; 28,75</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>27,69; 37,54</t>
+          <t>27,51; 37,34</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>32,26; 42,76</t>
+          <t>32,53; 43,14</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>10,92; 25,23</t>
+          <t>11,44; 24,99</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>18,21; 24,15</t>
+          <t>18,03; 24,2</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>21,13; 27,51</t>
+          <t>21,1; 27,79</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>30,64; 38,09</t>
+          <t>30,63; 37,74</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>15,1; 24,13</t>
+          <t>15,25; 24,38</t>
         </is>
       </c>
     </row>
@@ -1284,69 +1285,69 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>5,53; 13,82</t>
+          <t>6,02; 14,16</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>16,76; 28,46</t>
+          <t>17,01; 29,1</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>34,15; 46,91</t>
+          <t>34,09; 47,24</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>24,84; 35,99</t>
+          <t>24,71; 36,1</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>9,06; 19,17</t>
+          <t>8,78; 18,74</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>29,46; 42,9</t>
+          <t>29,01; 42,42</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>43,24; 56,78</t>
+          <t>44,08; 56,82</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>25,97; 34,82</t>
+          <t>25,89; 34,71</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>8,57; 15,07</t>
+          <t>8,34; 15,21</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>24,88; 33,61</t>
+          <t>25,26; 33,49</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>40,77; 50,18</t>
+          <t>41,05; 50,26</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>26,07; 33,62</t>
+          <t>26,23; 33,76</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1424,69 +1425,69 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>16,46; 26,59</t>
+          <t>16,58; 26,86</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>23,99; 35,04</t>
+          <t>23,6; 35,12</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>17,22; 28,1</t>
+          <t>17,46; 28,0</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>25,56; 34,78</t>
+          <t>25,61; 35,42</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>18,83; 29,22</t>
+          <t>18,79; 29,26</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>32,98; 44,88</t>
+          <t>32,17; 44,37</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>25,39; 37,1</t>
+          <t>26,25; 37,14</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>26,08; 34,72</t>
+          <t>26,17; 34,11</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>18,17; 25,75</t>
+          <t>18,76; 25,92</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>29,82; 37,93</t>
+          <t>29,67; 38,26</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>23,11; 30,86</t>
+          <t>23,58; 31,39</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>27,02; 33,32</t>
+          <t>26,89; 33,37</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1564,62 +1565,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>10,42; 15,57</t>
+          <t>10,67; 16,03</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>22,83; 30,43</t>
+          <t>22,98; 30,19</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>26,36; 34,44</t>
+          <t>26,67; 34,5</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>20,37; 27,31</t>
+          <t>20,19; 27,16</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>11,36; 16,83</t>
+          <t>11,31; 16,98</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>29,58; 37,34</t>
+          <t>29,62; 37,11</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>31,51; 39,07</t>
+          <t>31,67; 39,2</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>11,46; 34,38</t>
+          <t>12,38; 34,38</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>11,84; 15,61</t>
+          <t>11,62; 15,48</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>27,56; 32,41</t>
+          <t>27,54; 32,61</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>30,38; 35,52</t>
+          <t>30,43; 35,73</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>15,72; 29,14</t>
+          <t>15,44; 29,27</t>
         </is>
       </c>
     </row>
@@ -1704,62 +1705,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>16,46; 22,32</t>
+          <t>16,36; 22,11</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>21,07; 27,89</t>
+          <t>21,26; 27,83</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>18,15; 24,02</t>
+          <t>18,1; 24,03</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>21,3; 61,8</t>
+          <t>19,08; 62,02</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>18,35; 24,37</t>
+          <t>18,55; 24,71</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>24,88; 31,42</t>
+          <t>24,51; 31,3</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>22,93; 29,44</t>
+          <t>23,18; 29,79</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>62,12; 68,87</t>
+          <t>62,29; 68,71</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>18,14; 22,25</t>
+          <t>18,23; 22,32</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>23,87; 28,32</t>
+          <t>23,92; 28,86</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>21,49; 25,95</t>
+          <t>21,67; 26,07</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>31,76; 63,85</t>
+          <t>33,88; 64,03</t>
         </is>
       </c>
     </row>
@@ -1844,62 +1845,62 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>16,28; 18,79</t>
+          <t>16,12; 18,85</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>24,29; 27,43</t>
+          <t>24,29; 27,59</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>26,35; 29,55</t>
+          <t>26,19; 29,48</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>24,24; 34,61</t>
+          <t>24,92; 34,82</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>20,18; 23,21</t>
+          <t>20,04; 22,99</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>32,8; 36,25</t>
+          <t>32,68; 36,02</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>33,29; 36,43</t>
+          <t>33,12; 36,65</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>28,36; 37,57</t>
+          <t>28,54; 37,25</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>18,61; 20,5</t>
+          <t>18,67; 20,59</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>29,17; 31,43</t>
+          <t>29,16; 31,54</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>30,37; 32,66</t>
+          <t>30,3; 32,64</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>27,88; 35,37</t>
+          <t>28,57; 35,27</t>
         </is>
       </c>
     </row>
@@ -1928,4 +1929,2048 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población a la que su médico le ha aconsejado hacer algún tipo de ejercicio físico</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Almería</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>95</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>121</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>110</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>166</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>216</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>118</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>53029</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>67862</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>100385</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>38484</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>59522</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>113146</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>127629</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>33134</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>112550</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>181008</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>228014</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>71618</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>40371; 65276</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>53666; 85832</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>83686; 118640</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>29830; 53249</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>45668; 74342</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>96809; 131738</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>109838; 142728</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>25499; 41856</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>92626; 131053</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>157597; 201903</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>204145; 251189</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>57362; 87137</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Cádiz</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>102</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>169</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>159</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>154</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>210</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>165</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>304</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>256</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>379</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>300</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>463</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>107932</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>187559</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>140542</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>201308</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>156810</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>228543</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>188452</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>210540</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>264742</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>416102</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>328995</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>411848</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>88936; 127116</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>164394; 210424</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>121091; 160210</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>172766; 233022</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>136427; 176178</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>205180; 253261</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>165950; 211106</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>191507; 231088</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>238417; 294498</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>383424; 450040</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>298190; 358334</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>376476; 448375</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Córdoba</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>118</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>106</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>179</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>104</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>165</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>191</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>297</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>41478</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>74542</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>82628</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>87571</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>60761</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>98435</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>110992</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>101230</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>102239</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>172976</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>193619</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>188801</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>31546; 55560</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>60863; 91232</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>67992; 98087</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>73909; 101771</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>47726; 74456</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>81343; 116954</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>94231; 129101</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>87306; 116084</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>85991; 121396</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>148954; 194817</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>171681; 218410</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>167952; 210259</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Granada</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>109</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>87</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>112</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>127</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>142</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>163</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>236</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>222</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>60451</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>58297</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>111792</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>67015</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>83277</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>118421</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>143453</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>92557</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>143728</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>176717</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>255245</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>159571</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>47991; 75757</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>43758; 75178</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>94272; 130520</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>53314; 83600</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>67778; 99648</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>99989; 135739</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>124401; 164989</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>54446; 118859</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>124205; 166691</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>152220; 200515</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>229553; 282873</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>120209; 192146</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Huelva</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>84</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>82</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>113</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>153</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>116</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>197</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>235</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>17924</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>46470</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>84485</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>53225</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>26565</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>78338</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>110229</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>62732</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>44489</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>124808</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>194714</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>115957</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>11569; 27187</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>35647; 60977</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>71490; 99063</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>44170; 64531</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>17373; 37072</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>63451; 92778</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>96359; 124197</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>53722; 72021</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>32519; 59282</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>108183; 143409</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>175812; 215246</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>101291; 130402</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>Jaén</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>143</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>167</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>173</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>136</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>310</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>53216</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>78710</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>58566</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>81566</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>60418</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>105416</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>85279</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>77248</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>113634</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>184126</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>143845</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>158814</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>41914; 67906</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>63990; 95231</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>45311; 72651</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>69046; 95510</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>48140; 74968</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>88909; 122617</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>70918; 100311</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>67281; 87680</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>95498; 131916</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>162457; 209479</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>124875; 166252</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>141607; 175736</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Málaga</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>160</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>171</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>166</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>88</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>205</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>223</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>342</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>168</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>365</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>394</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>508</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>77229</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>171502</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>194393</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>147385</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>85564</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>226883</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>239047</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>215135</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>162793</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>398385</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>433441</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>362520</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>63300; 95117</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>149304; 196079</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>170415; 220440</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>126063; 169568</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>68634; 103021</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>201938; 252969</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>214010; 264910</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>105063; 291678</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>139411; 185770</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>366644; 434140</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>400137; 469789</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>227444; 431087</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Sevilla</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>141</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>155</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>151</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>488</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>147</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>198</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>189</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>719</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>288</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>353</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>340</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>1207</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>136062</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>179092</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>158665</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>415108</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>158689</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>218206</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>212831</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>471058</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>294751</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>397298</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>371496</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>886167</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>116699; 157738</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>157325; 206021</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>137567; 182695</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>177241; 575996</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>137604; 183332</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>190789; 243695</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>187092; 240426</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>445258; 491191</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>265272; 324811</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>363304; 438288</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>339647; 408644</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>556795; 1052390</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>555</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>789</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>887</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>1286</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="inlineStr">
+        <is>
+          <t>676</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>1091</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>1123</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>2074</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>1231</t>
+        </is>
+      </c>
+      <c r="L28" s="2" t="inlineStr">
+        <is>
+          <t>1880</t>
+        </is>
+      </c>
+      <c r="M28" s="2" t="inlineStr">
+        <is>
+          <t>2010</t>
+        </is>
+      </c>
+      <c r="N28" s="2" t="inlineStr">
+        <is>
+          <t>3360</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>547321</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>864034</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>931456</t>
+        </is>
+      </c>
+      <c r="F29" s="2" t="inlineStr">
+        <is>
+          <t>1091663</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="inlineStr">
+        <is>
+          <t>691606</t>
+        </is>
+      </c>
+      <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t>1187387</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>1217911</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>1263634</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>1238927</t>
+        </is>
+      </c>
+      <c r="L29" s="2" t="inlineStr">
+        <is>
+          <t>2051421</t>
+        </is>
+      </c>
+      <c r="M29" s="2" t="inlineStr">
+        <is>
+          <t>2149368</t>
+        </is>
+      </c>
+      <c r="N29" s="2" t="inlineStr">
+        <is>
+          <t>2355296</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>504055; 589433</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>808315; 918082</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>874749; 984567</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>862249; 1204823</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="inlineStr">
+        <is>
+          <t>643049; 737446</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>1128156; 1243553</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>1157730; 1281273</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>1043356; 1361965</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>1182969; 1304283</t>
+        </is>
+      </c>
+      <c r="L30" s="2" t="inlineStr">
+        <is>
+          <t>1976645; 2138551</t>
+        </is>
+      </c>
+      <c r="M30" s="2" t="inlineStr">
+        <is>
+          <t>2070915; 2231270</t>
+        </is>
+      </c>
+      <c r="N30" s="2" t="inlineStr">
+        <is>
+          <t>2032995; 2509442</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>